--- a/StructureDefinition-ext-R5-Contract.contentDefinition.xlsx
+++ b/StructureDefinition-ext-R5-Contract.contentDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="184">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Detailed codes for the definition of contracts.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-definition-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -457,12 +448,6 @@
     <t>Extension.extension:subType.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the additional definition of contracts.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-definition-subtype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:publisher</t>
   </si>
   <si>
@@ -494,7 +479,7 @@
     <t>Extension.extension:publisher.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -566,15 +551,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Status of the publication of contract content.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-publicationstatus-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:copyright</t>
@@ -969,8 +945,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1886,43 +1862,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1930,13 +1906,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1961,14 +1937,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2037,7 +2013,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2140,7 +2116,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2245,7 +2221,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2288,7 +2264,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2350,7 +2326,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2379,10 +2355,10 @@
         <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2409,32 +2385,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2445,7 +2421,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2453,13 +2429,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2484,14 +2460,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2560,7 +2536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2663,7 +2639,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2768,7 +2744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2811,7 +2787,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2873,7 +2849,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2899,13 +2875,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2956,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2968,7 +2944,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -2976,13 +2952,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3007,14 +2983,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3083,7 +3059,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3186,7 +3162,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3291,7 +3267,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3334,7 +3310,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3396,7 +3372,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3422,13 +3398,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3479,7 +3455,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3491,7 +3467,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3499,13 +3475,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3530,14 +3506,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3606,7 +3582,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3709,7 +3685,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3814,7 +3790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3857,7 +3833,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3919,7 +3895,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3945,13 +3921,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3978,13 +3954,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4002,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4014,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4022,13 +3998,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4053,14 +4029,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4129,7 +4105,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4232,7 +4208,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4337,7 +4313,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4380,7 +4356,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4442,7 +4418,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4468,13 +4444,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4525,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4537,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -4650,10 +4626,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4676,13 +4652,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4733,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4745,7 +4721,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>121</v>
